--- a/gitOffice设计阶段.xlsx
+++ b/gitOffice设计阶段.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主要内容" sheetId="1" r:id="rId1"/>
+    <sheet name="业务流程" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <t xml:space="preserve">GitOffice </t>
@@ -50,12 +51,28 @@
   <si>
     <t>数据逻辑——业务流程当中的数据流，以及数据流中的数据定义和数据结构。</t>
   </si>
+  <si>
+    <t>1. 版本备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 版本回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 版本修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 版本比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +105,26 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,17 +139,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -135,6 +169,588 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="1238250"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>将欲备份的目标文件添加至暂存区中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="2333625"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交暂存区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="1924050"/>
+          <a:ext cx="0" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="1219200"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在时间轴中找到目标版本节点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="2324100"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>将工作空间置为目标版本内容</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="1905000"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="1190625"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将欲备份的目标文件添加至暂存区中</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="2324100"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选择节点控制方式提交暂存区</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="1876425"/>
+          <a:ext cx="0" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="剪去单角的矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="3619500"/>
+          <a:ext cx="1685925" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>版本修改本质上是特殊的版本 备份。它们的区别在于，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>版本备份</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是在任何分支的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>末节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上进行版本的保存操作；</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>版本修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是在任何分支的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>非末节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上进行版本的保存操作。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,64 +1042,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="3:12" ht="15" customHeight="1">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="3:12" ht="15" customHeight="1">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="6" spans="3:12" ht="15" customHeight="1">
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="15" customHeight="1">
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="15" customHeight="1">
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="15" customHeight="1">
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -495,4 +1111,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:BB3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="14" max="14" width="3.625" style="5"/>
+    <col min="27" max="27" width="3.625" style="5"/>
+    <col min="41" max="41" width="3.625" style="5"/>
+    <col min="54" max="54" width="3.625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:50" ht="15" customHeight="1">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AR2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+    </row>
+    <row r="3" spans="4:50" ht="15" customHeight="1">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="Q2:W3"/>
+    <mergeCell ref="AD2:AJ3"/>
+    <mergeCell ref="AR2:AX3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/gitOffice设计阶段.xlsx
+++ b/gitOffice设计阶段.xlsx
@@ -147,13 +147,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,6 +538,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -674,7 +675,7 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -684,7 +685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8153400" y="3619500"/>
-          <a:ext cx="1685925" cy="1924050"/>
+          <a:ext cx="1685925" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst/>
@@ -705,45 +706,466 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>版本修改本质上是特殊的版本 备份。它们的区别在于，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>版本备份</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是在任何分支的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>末节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上进行版本的保存操作；</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>版本修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是在任何分支的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>非末节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上进行版本的保存操作。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12134850" y="1095375"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>版本节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12134850" y="2295525"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>版本节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12134850" y="3543300"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进行比较分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="1781175"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12868275" y="2981325"/>
+          <a:ext cx="0" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="剪去单角的矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12087225" y="4648200"/>
+          <a:ext cx="1685925" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>版本修改本质上是特殊的版本 备份。它们的区别在于，</a:t>
+            <a:t>默认情况下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1"/>
+            <a:t>A</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
-            <a:t>版本备份</a:t>
+            <a:t>版本节点</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>是在任何分支的</a:t>
+            <a:t>是</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
-            <a:t>末节点</a:t>
+            <a:t>当前节点</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>上进行版本的保存操作；</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
-            <a:t>版本修改</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>是在任何分支的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
-            <a:t>非末节点</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>上进行版本的保存操作。</a:t>
+            <a:t>。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1049,30 +1471,30 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="3:12" ht="15" customHeight="1">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="3:12" ht="15" customHeight="1">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="6" spans="3:12" ht="15" customHeight="1">
       <c r="E6" s="1" t="s">
@@ -1115,85 +1537,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:BB3"/>
+  <dimension ref="A2:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="14" max="14" width="3.625" style="5"/>
-    <col min="27" max="27" width="3.625" style="5"/>
-    <col min="41" max="41" width="3.625" style="5"/>
-    <col min="54" max="54" width="3.625" style="5"/>
+    <col min="1" max="1" width="3.625" style="3"/>
+    <col min="14" max="14" width="3.625" style="3"/>
+    <col min="27" max="27" width="3.625" style="3"/>
+    <col min="41" max="41" width="3.625" style="3"/>
+    <col min="54" max="54" width="3.625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:50" ht="15" customHeight="1">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="AD2" s="4" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AR2" s="4" t="s">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AR2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
     </row>
     <row r="3" spans="4:50" ht="15" customHeight="1">
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/gitOffice设计阶段.xlsx
+++ b/gitOffice设计阶段.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <t xml:space="preserve">GitOffice </t>
@@ -67,12 +67,36 @@
     <t>4. 版本比较</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+ 6. 分支合并
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 分支创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 分支删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. 标签创建
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. 标签查询
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +136,12 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -139,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,6 +184,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -313,6 +349,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -495,16 +534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -513,7 +552,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="1190625"/>
+          <a:off x="8534400" y="1181100"/>
           <a:ext cx="1466850" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -561,16 +600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -579,7 +618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="2324100"/>
+          <a:off x="8534400" y="2314575"/>
           <a:ext cx="1466850" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -616,16 +655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -637,7 +676,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8972550" y="1876425"/>
+          <a:off x="9267825" y="1866900"/>
           <a:ext cx="0" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -666,16 +705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -684,7 +723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="3619500"/>
+          <a:off x="8439150" y="3638550"/>
           <a:ext cx="1685925" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
@@ -1139,7 +1178,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1170,6 +1209,1646 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19573875" y="1076325"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>分支</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19573875" y="2238375"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>分支</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19573875" y="3533775"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解决分支内容冲突</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19573875" y="4781550"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>合并分支</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20307300" y="1762125"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20307300" y="2924175"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20307300" y="4219575"/>
+          <a:ext cx="0" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="剪去单角的矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19450050" y="6086475"/>
+          <a:ext cx="1685925" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>默认情况下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>分子</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>当前分支</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>分支内容冲突并不总是存在。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="圆角矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15868650" y="1057275"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定分支开始节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15868650" y="2438400"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定分支名称</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="圆角矩形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15868650" y="3781425"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>创建分支</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16602075" y="1743075"/>
+          <a:ext cx="0" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16602075" y="3124200"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="剪去单角的矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15792450" y="5133975"/>
+          <a:ext cx="1685925" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>默认情况下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>开始节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="1"/>
+            <a:t>当前节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="圆角矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="14068425"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指定欲删除的分支</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="圆角矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="15468600"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除分支</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="14754225"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="圆角矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="14039850"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指定欲创建标签的节点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="15449550"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指定标签名称</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="圆角矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="16821150"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指定标签</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="14725650"/>
+          <a:ext cx="0" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="16135350"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="圆角矩形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505825" y="13973175"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指定欲创建标签的节点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="圆角矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="18240375"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>编写备注</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="圆角矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="19659600"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建标签</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="17506950"/>
+          <a:ext cx="0" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直接箭头连接符 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="18926175"/>
+          <a:ext cx="0" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1537,10 +3216,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BB3"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:CC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AZ22" sqref="AZ22"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG99" sqref="AG99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -1550,9 +3232,12 @@
     <col min="27" max="27" width="3.625" style="3"/>
     <col min="41" max="41" width="3.625" style="3"/>
     <col min="54" max="54" width="3.625" style="3"/>
+    <col min="67" max="67" width="3.625" style="3"/>
+    <col min="80" max="80" width="3.625" style="6"/>
+    <col min="81" max="81" width="3.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:50" ht="15" customHeight="1">
+    <row r="2" spans="4:77" ht="15" customHeight="1">
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1571,15 +3256,16 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
       <c r="AR2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1589,8 +3275,26 @@
       <c r="AV2" s="5"/>
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
+      <c r="BF2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="7"/>
+      <c r="BS2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
     </row>
-    <row r="3" spans="4:50" ht="15" customHeight="1">
+    <row r="3" spans="4:77" ht="15" customHeight="1">
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -1605,13 +3309,14 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="AD3" s="5"/>
+      <c r="AD3" s="7"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
@@ -1619,17 +3324,104 @@
       <c r="AV3" s="5"/>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="7"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+    </row>
+    <row r="47" spans="1:81" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AO47" s="8"/>
+      <c r="BB47" s="8"/>
+      <c r="BO47" s="8"/>
+      <c r="CC47" s="8"/>
+    </row>
+    <row r="63" spans="1:81" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="BB63" s="3"/>
+      <c r="BO63" s="3"/>
+      <c r="CC63" s="3"/>
+    </row>
+    <row r="67" spans="5:37" s="3" customFormat="1" ht="15" customHeight="1"/>
+    <row r="70" spans="5:37" ht="15" customHeight="1">
+      <c r="E70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="R70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="AE70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+    </row>
+    <row r="71" spans="5:37" ht="15" customHeight="1">
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="BS2:BY3"/>
+    <mergeCell ref="BF2:BK3"/>
+    <mergeCell ref="E70:J71"/>
+    <mergeCell ref="R70:W71"/>
+    <mergeCell ref="AE2:AK3"/>
+    <mergeCell ref="AE70:AJ71"/>
+    <mergeCell ref="AK70:AK71"/>
     <mergeCell ref="D2:J3"/>
     <mergeCell ref="Q2:W3"/>
-    <mergeCell ref="AD2:AJ3"/>
     <mergeCell ref="AR2:AX3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gitOffice设计阶段.xlsx
+++ b/gitOffice设计阶段.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="主要内容" sheetId="1" r:id="rId1"/>
-    <sheet name="服务流程" sheetId="3" r:id="rId2"/>
+    <sheet name="服务项目" sheetId="4" r:id="rId2"/>
+    <sheet name="服务流程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <r>
       <t xml:space="preserve">GitOffice </t>
@@ -665,13 +666,78 @@
   <si>
     <t xml:space="preserve"> 9. 标签查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给出标签关键字或查找约束条件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定标签名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看标签内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 版本备份</t>
+  </si>
+  <si>
+    <t>2. 版本回溯</t>
+  </si>
+  <si>
+    <t>3. 版本修改</t>
+  </si>
+  <si>
+    <t>4. 版本比较</t>
+  </si>
+  <si>
+    <t>5. 分支创建</t>
+  </si>
+  <si>
+    <t>6. 分支合并</t>
+  </si>
+  <si>
+    <t>7. 分支删除</t>
+  </si>
+  <si>
+    <t>8. 标签创建</t>
+  </si>
+  <si>
+    <t>9. 标签查询</t>
+  </si>
+  <si>
+    <t>10. 标签删除</t>
+  </si>
+  <si>
+    <t>11. 状态监视</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +816,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -960,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1038,6 +1126,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1345,7 +1440,7 @@
   <dimension ref="C2:AS15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -1582,13 +1677,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetData>
+    <row r="3" spans="3:9" ht="15" customHeight="1">
+      <c r="C3" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="3:9" ht="15" customHeight="1">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="3:9" ht="15" customHeight="1">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="8" spans="3:9" ht="15" customHeight="1">
+      <c r="E8" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="3:9" ht="15" customHeight="1">
+      <c r="E9" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="3:9" ht="15" customHeight="1">
+      <c r="E10" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="3:9" ht="15" customHeight="1">
+      <c r="E11" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="3:9" ht="15" customHeight="1">
+      <c r="E12" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="3:9" ht="15" customHeight="1">
+      <c r="E13" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="3:9" ht="15" customHeight="1">
+      <c r="E14" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="3:9" ht="15" customHeight="1">
+      <c r="E15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="3:9" ht="15" customHeight="1">
+      <c r="E16" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="5:8" ht="15" customHeight="1">
+      <c r="E17" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="5:8" ht="15" customHeight="1">
+      <c r="E18" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:AU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -2059,8 +2291,17 @@
       <c r="W47" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" ht="15" customHeight="1">
+      <c r="AK47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="3:40" ht="15" customHeight="1">
       <c r="C49" t="s">
         <v>58</v>
       </c>
@@ -2073,18 +2314,30 @@
       <c r="W49" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" ht="15" customHeight="1">
+      <c r="AL49" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="3:40" ht="15" customHeight="1">
       <c r="U51" t="s">
         <v>65</v>
       </c>
       <c r="W51" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" ht="15" customHeight="1">
+      <c r="AL51" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="3:40" ht="15" customHeight="1">
       <c r="T53" s="8" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="U53" t="s">
         <v>71</v>
@@ -2093,7 +2346,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="3:23" ht="15" customHeight="1">
+    <row r="55" spans="3:40" ht="15" customHeight="1">
       <c r="U55" t="s">
         <v>73</v>
       </c>
